--- a/data/INDIGO.xlsx
+++ b/data/INDIGO.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H310"/>
+  <dimension ref="A1:H313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8467,6 +8467,84 @@
         <v>1585.32</v>
       </c>
     </row>
+    <row r="311" spans="1:8">
+      <c r="A311" s="2">
+        <v>42775</v>
+      </c>
+      <c r="B311">
+        <v>853</v>
+      </c>
+      <c r="C311">
+        <v>854.95</v>
+      </c>
+      <c r="D311">
+        <v>841.1</v>
+      </c>
+      <c r="E311">
+        <v>847.5</v>
+      </c>
+      <c r="F311">
+        <v>846.45</v>
+      </c>
+      <c r="G311">
+        <v>220283</v>
+      </c>
+      <c r="H311">
+        <v>1870.86</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="A312" s="2">
+        <v>42776</v>
+      </c>
+      <c r="B312">
+        <v>847.5</v>
+      </c>
+      <c r="C312">
+        <v>850</v>
+      </c>
+      <c r="D312">
+        <v>835</v>
+      </c>
+      <c r="E312">
+        <v>836.2</v>
+      </c>
+      <c r="F312">
+        <v>836.9</v>
+      </c>
+      <c r="G312">
+        <v>70235</v>
+      </c>
+      <c r="H312">
+        <v>590.36</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="A313" s="2">
+        <v>42779</v>
+      </c>
+      <c r="B313">
+        <v>840</v>
+      </c>
+      <c r="C313">
+        <v>840</v>
+      </c>
+      <c r="D313">
+        <v>827</v>
+      </c>
+      <c r="E313">
+        <v>827</v>
+      </c>
+      <c r="F313">
+        <v>830.5</v>
+      </c>
+      <c r="G313">
+        <v>367676</v>
+      </c>
+      <c r="H313">
+        <v>3057.42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
